--- a/test_Cases.xlsx
+++ b/test_Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iotaanalyticscom-my.sharepoint.com/personal/jaspreet_singh_iotaanalytics_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaspreet.singh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{10C469D5-DBF4-40C9-A10C-5062880FC1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF29C87-E471-4F14-87C0-44D4A49A36EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1C205-D4FD-488D-BA87-F50C92082350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11235" tabRatio="722" xr2:uid="{D30B9AEB-85AB-4CFB-AFF8-889CF502F073}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" xr2:uid="{D30B9AEB-85AB-4CFB-AFF8-889CF502F073}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional Test Cases (Daily)" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1790">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -5758,6 +5758,9 @@
   </si>
   <si>
     <t>UI Test Cases</t>
+  </si>
+  <si>
+    <t>Image Filename</t>
   </si>
 </sst>
 </file>
@@ -5889,7 +5892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5915,9 +5918,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5945,10 +5945,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6275,7 +6271,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B344" sqref="B344"/>
+      <selection pane="bottomLeft" activeCell="G334" sqref="G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6304,15 +6300,15 @@
       <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10">
-        <v>45889</v>
+      <c r="G1" s="7" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6332,7 +6328,7 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -6352,7 +6348,7 @@
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -6372,7 +6368,7 @@
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -6392,7 +6388,7 @@
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -6412,7 +6408,7 @@
       <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -6432,7 +6428,7 @@
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -6452,7 +6448,7 @@
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -6472,7 +6468,7 @@
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -6492,7 +6488,7 @@
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -6512,7 +6508,7 @@
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -6532,7 +6528,7 @@
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -6552,7 +6548,7 @@
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -6572,7 +6568,7 @@
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6592,7 +6588,7 @@
       <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -6612,7 +6608,7 @@
       <c r="A17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -6632,7 +6628,7 @@
       <c r="A18" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -6652,7 +6648,7 @@
       <c r="A19" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -6672,7 +6668,7 @@
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -6692,7 +6688,7 @@
       <c r="A21" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -6712,7 +6708,7 @@
       <c r="A22" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -6732,7 +6728,7 @@
       <c r="A23" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -6752,7 +6748,7 @@
       <c r="A24" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -6772,7 +6768,7 @@
       <c r="A25" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -6792,7 +6788,7 @@
       <c r="A26" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -6812,7 +6808,7 @@
       <c r="A27" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -6832,7 +6828,7 @@
       <c r="A28" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -6852,7 +6848,7 @@
       <c r="A29" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -6872,7 +6868,7 @@
       <c r="A30" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -6892,7 +6888,7 @@
       <c r="A31" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -6912,7 +6908,7 @@
       <c r="A32" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -6932,7 +6928,7 @@
       <c r="A33" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -6952,7 +6948,7 @@
       <c r="A34" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -6972,7 +6968,7 @@
       <c r="A35" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -6992,7 +6988,7 @@
       <c r="A36" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -7012,7 +7008,7 @@
       <c r="A37" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -7032,7 +7028,7 @@
       <c r="A38" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -7052,7 +7048,7 @@
       <c r="A39" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -7072,7 +7068,7 @@
       <c r="A40" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -7092,7 +7088,7 @@
       <c r="A41" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -7112,7 +7108,7 @@
       <c r="A42" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -7132,7 +7128,7 @@
       <c r="A43" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -7152,7 +7148,7 @@
       <c r="A44" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -7172,7 +7168,7 @@
       <c r="A45" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -7192,7 +7188,7 @@
       <c r="A46" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -7212,7 +7208,7 @@
       <c r="A47" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -7232,7 +7228,7 @@
       <c r="A48" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -7252,7 +7248,7 @@
       <c r="A49" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -7272,7 +7268,7 @@
       <c r="A50" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -7292,7 +7288,7 @@
       <c r="A51" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -7312,7 +7308,7 @@
       <c r="A52" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -7332,7 +7328,7 @@
       <c r="A53" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -7352,7 +7348,7 @@
       <c r="A54" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -7372,7 +7368,7 @@
       <c r="A55" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -7392,7 +7388,7 @@
       <c r="A56" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -7412,7 +7408,7 @@
       <c r="A57" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -7432,7 +7428,7 @@
       <c r="A58" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -7452,7 +7448,7 @@
       <c r="A59" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -7472,7 +7468,7 @@
       <c r="A60" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -7492,7 +7488,7 @@
       <c r="A61" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -7512,7 +7508,7 @@
       <c r="A62" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -7532,7 +7528,7 @@
       <c r="A63" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -7552,7 +7548,7 @@
       <c r="A64" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -7572,7 +7568,7 @@
       <c r="A65" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -7592,7 +7588,7 @@
       <c r="A66" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -7612,7 +7608,7 @@
       <c r="A67" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -7632,7 +7628,7 @@
       <c r="A68" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -7652,7 +7648,7 @@
       <c r="A69" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -7672,7 +7668,7 @@
       <c r="A70" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -7692,7 +7688,7 @@
       <c r="A71" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -7712,7 +7708,7 @@
       <c r="A72" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -7732,7 +7728,7 @@
       <c r="A73" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -7752,7 +7748,7 @@
       <c r="A74" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -7772,7 +7768,7 @@
       <c r="A75" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -7792,7 +7788,7 @@
       <c r="A76" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -7812,7 +7808,7 @@
       <c r="A77" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -7832,7 +7828,7 @@
       <c r="A78" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -7852,7 +7848,7 @@
       <c r="A79" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -7872,7 +7868,7 @@
       <c r="A80" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -7892,7 +7888,7 @@
       <c r="A81" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -7912,7 +7908,7 @@
       <c r="A82" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -7932,7 +7928,7 @@
       <c r="A83" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -7952,7 +7948,7 @@
       <c r="A84" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -7972,7 +7968,7 @@
       <c r="A85" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -7992,7 +7988,7 @@
       <c r="A86" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -8012,7 +8008,7 @@
       <c r="A87" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C87" s="8" t="s">
@@ -8032,7 +8028,7 @@
       <c r="A88" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -8052,7 +8048,7 @@
       <c r="A89" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -8072,7 +8068,7 @@
       <c r="A90" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C90" s="8" t="s">
@@ -8092,7 +8088,7 @@
       <c r="A91" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -8112,7 +8108,7 @@
       <c r="A92" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -8132,7 +8128,7 @@
       <c r="A93" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -8152,7 +8148,7 @@
       <c r="A94" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -8172,7 +8168,7 @@
       <c r="A95" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -8192,7 +8188,7 @@
       <c r="A96" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -8212,7 +8208,7 @@
       <c r="A97" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -8232,7 +8228,7 @@
       <c r="A98" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -8252,7 +8248,7 @@
       <c r="A99" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -8272,7 +8268,7 @@
       <c r="A100" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C100" s="8" t="s">
@@ -8292,7 +8288,7 @@
       <c r="A101" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -8312,7 +8308,7 @@
       <c r="A102" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C102" s="8" t="s">
@@ -8332,7 +8328,7 @@
       <c r="A103" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C103" s="8" t="s">
@@ -8352,7 +8348,7 @@
       <c r="A104" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C104" s="8" t="s">
@@ -8372,7 +8368,7 @@
       <c r="A105" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C105" s="8" t="s">
@@ -8392,7 +8388,7 @@
       <c r="A106" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -8412,7 +8408,7 @@
       <c r="A107" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C107" s="8" t="s">
@@ -8432,7 +8428,7 @@
       <c r="A108" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -8452,7 +8448,7 @@
       <c r="A109" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C109" s="8" t="s">
@@ -8472,7 +8468,7 @@
       <c r="A110" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -8492,7 +8488,7 @@
       <c r="A111" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -8512,7 +8508,7 @@
       <c r="A112" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C112" s="8" t="s">
@@ -8532,7 +8528,7 @@
       <c r="A113" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C113" s="8" t="s">
@@ -8552,7 +8548,7 @@
       <c r="A114" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -8572,7 +8568,7 @@
       <c r="A115" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -8592,7 +8588,7 @@
       <c r="A116" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C116" s="8" t="s">
@@ -8612,7 +8608,7 @@
       <c r="A117" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -8632,7 +8628,7 @@
       <c r="A118" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -8652,7 +8648,7 @@
       <c r="A119" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -8672,7 +8668,7 @@
       <c r="A120" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -8692,7 +8688,7 @@
       <c r="A121" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C121" s="8" t="s">
@@ -8712,7 +8708,7 @@
       <c r="A122" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -8732,7 +8728,7 @@
       <c r="A123" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -8752,7 +8748,7 @@
       <c r="A124" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -8772,7 +8768,7 @@
       <c r="A125" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -8792,7 +8788,7 @@
       <c r="A126" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -8812,7 +8808,7 @@
       <c r="A127" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C127" s="8" t="s">
@@ -8832,7 +8828,7 @@
       <c r="A128" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -8852,7 +8848,7 @@
       <c r="A129" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C129" s="8" t="s">
@@ -8872,7 +8868,7 @@
       <c r="A130" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C130" s="8" t="s">
@@ -8892,7 +8888,7 @@
       <c r="A131" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -8912,7 +8908,7 @@
       <c r="A132" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C132" s="8" t="s">
@@ -8932,7 +8928,7 @@
       <c r="A133" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C133" s="8" t="s">
@@ -8952,7 +8948,7 @@
       <c r="A134" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -8972,7 +8968,7 @@
       <c r="A135" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -8992,7 +8988,7 @@
       <c r="A136" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C136" s="8" t="s">
@@ -9012,7 +9008,7 @@
       <c r="A137" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -9032,7 +9028,7 @@
       <c r="A138" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C138" s="8" t="s">
@@ -9052,7 +9048,7 @@
       <c r="A139" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -9072,7 +9068,7 @@
       <c r="A140" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -9092,7 +9088,7 @@
       <c r="A141" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -9112,7 +9108,7 @@
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -9132,7 +9128,7 @@
       <c r="A143" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -9152,7 +9148,7 @@
       <c r="A144" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C144" s="8" t="s">
@@ -9172,7 +9168,7 @@
       <c r="A145" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -9192,7 +9188,7 @@
       <c r="A146" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -9212,7 +9208,7 @@
       <c r="A147" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -9232,7 +9228,7 @@
       <c r="A148" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -9252,7 +9248,7 @@
       <c r="A149" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C149" s="8" t="s">
@@ -9272,7 +9268,7 @@
       <c r="A150" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C150" s="8" t="s">
@@ -9292,7 +9288,7 @@
       <c r="A151" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -9312,7 +9308,7 @@
       <c r="A152" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C152" s="8" t="s">
@@ -9332,7 +9328,7 @@
       <c r="A153" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -9352,7 +9348,7 @@
       <c r="A154" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -9372,7 +9368,7 @@
       <c r="A155" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C155" s="8" t="s">
@@ -9392,7 +9388,7 @@
       <c r="A156" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C156" s="8" t="s">
@@ -9412,7 +9408,7 @@
       <c r="A157" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C157" s="8" t="s">
@@ -9432,7 +9428,7 @@
       <c r="A158" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C158" s="8" t="s">
@@ -9452,7 +9448,7 @@
       <c r="A159" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C159" s="8" t="s">
@@ -9472,7 +9468,7 @@
       <c r="A160" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C160" s="8" t="s">
@@ -9492,7 +9488,7 @@
       <c r="A161" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C161" s="8" t="s">
@@ -9512,7 +9508,7 @@
       <c r="A162" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C162" s="8" t="s">
@@ -9532,7 +9528,7 @@
       <c r="A163" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C163" s="8" t="s">
@@ -9552,7 +9548,7 @@
       <c r="A164" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C164" s="8" t="s">
@@ -9572,7 +9568,7 @@
       <c r="A165" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C165" s="8" t="s">
@@ -9592,7 +9588,7 @@
       <c r="A166" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C166" s="8" t="s">
@@ -9612,7 +9608,7 @@
       <c r="A167" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -9632,7 +9628,7 @@
       <c r="A168" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C168" s="8" t="s">
@@ -9652,7 +9648,7 @@
       <c r="A169" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C169" s="8" t="s">
@@ -9672,7 +9668,7 @@
       <c r="A170" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -9692,7 +9688,7 @@
       <c r="A171" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C171" s="8" t="s">
@@ -9712,7 +9708,7 @@
       <c r="A172" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C172" s="8" t="s">
@@ -9732,7 +9728,7 @@
       <c r="A173" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C173" s="8" t="s">
@@ -9752,7 +9748,7 @@
       <c r="A174" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C174" s="8" t="s">
@@ -9772,7 +9768,7 @@
       <c r="A175" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C175" s="8" t="s">
@@ -9792,7 +9788,7 @@
       <c r="A176" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C176" s="8" t="s">
@@ -9812,7 +9808,7 @@
       <c r="A177" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -9832,7 +9828,7 @@
       <c r="A178" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C178" s="8" t="s">
@@ -9852,7 +9848,7 @@
       <c r="A179" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C179" s="8" t="s">
@@ -9872,7 +9868,7 @@
       <c r="A180" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C180" s="8" t="s">
@@ -9892,7 +9888,7 @@
       <c r="A181" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -9912,7 +9908,7 @@
       <c r="A182" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C182" s="8" t="s">
@@ -9932,7 +9928,7 @@
       <c r="A183" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -9952,7 +9948,7 @@
       <c r="A184" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C184" s="8" t="s">
@@ -9972,7 +9968,7 @@
       <c r="A185" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -9992,7 +9988,7 @@
       <c r="A186" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C186" s="8" t="s">
@@ -10012,7 +10008,7 @@
       <c r="A187" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -10032,7 +10028,7 @@
       <c r="A188" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C188" s="8" t="s">
@@ -10052,7 +10048,7 @@
       <c r="A189" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C189" s="8" t="s">
@@ -10072,7 +10068,7 @@
       <c r="A190" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>812</v>
       </c>
       <c r="C190" s="8" t="s">
@@ -10092,7 +10088,7 @@
       <c r="A191" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C191" s="8" t="s">
@@ -10112,7 +10108,7 @@
       <c r="A192" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C192" s="8" t="s">
@@ -10132,7 +10128,7 @@
       <c r="A193" s="8" t="s">
         <v>1264</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C193" s="8" t="s">
@@ -10152,7 +10148,7 @@
       <c r="A194" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C194" s="8" t="s">
@@ -10172,7 +10168,7 @@
       <c r="A195" s="8" t="s">
         <v>1266</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C195" s="8" t="s">
@@ -10192,7 +10188,7 @@
       <c r="A196" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C196" s="8" t="s">
@@ -10212,7 +10208,7 @@
       <c r="A197" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C197" s="8" t="s">
@@ -10232,7 +10228,7 @@
       <c r="A198" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="10" t="s">
         <v>915</v>
       </c>
       <c r="C198" s="8" t="s">
@@ -10292,7 +10288,7 @@
       <c r="A201" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="10" t="s">
         <v>956</v>
       </c>
       <c r="C201" s="8" t="s">
@@ -10312,7 +10308,7 @@
       <c r="A202" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="10" t="s">
         <v>956</v>
       </c>
       <c r="C202" s="8" t="s">
@@ -10332,7 +10328,7 @@
       <c r="A203" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="10" t="s">
         <v>956</v>
       </c>
       <c r="C203" s="8" t="s">
@@ -10352,7 +10348,7 @@
       <c r="A204" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="10" t="s">
         <v>969</v>
       </c>
       <c r="C204" s="8" t="s">
@@ -10372,7 +10368,7 @@
       <c r="A205" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="10" t="s">
         <v>969</v>
       </c>
       <c r="C205" s="8" t="s">
@@ -10392,7 +10388,7 @@
       <c r="A206" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="10" t="s">
         <v>969</v>
       </c>
       <c r="C206" s="8" t="s">
@@ -10412,7 +10408,7 @@
       <c r="A207" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="10" t="s">
         <v>969</v>
       </c>
       <c r="C207" s="8" t="s">
@@ -10432,7 +10428,7 @@
       <c r="A208" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="10" t="s">
         <v>986</v>
       </c>
       <c r="C208" s="8" t="s">
@@ -10452,7 +10448,7 @@
       <c r="A209" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="10" t="s">
         <v>986</v>
       </c>
       <c r="C209" s="8" t="s">
@@ -10492,7 +10488,7 @@
       <c r="A211" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="C211" s="8" t="s">
@@ -10512,7 +10508,7 @@
       <c r="A212" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="10" t="s">
         <v>1000</v>
       </c>
       <c r="C212" s="8" t="s">
@@ -10552,7 +10548,7 @@
       <c r="A214" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="10" t="s">
         <v>1013</v>
       </c>
       <c r="C214" s="8" t="s">
@@ -10572,7 +10568,7 @@
       <c r="A215" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="10" t="s">
         <v>1013</v>
       </c>
       <c r="C215" s="8" t="s">
@@ -10592,7 +10588,7 @@
       <c r="A216" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="C216" s="8" t="s">
@@ -10612,7 +10608,7 @@
       <c r="A217" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="10" t="s">
         <v>1022</v>
       </c>
       <c r="C217" s="8" t="s">
@@ -10712,7 +10708,7 @@
       <c r="A222" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C222" s="8" t="s">
@@ -10732,7 +10728,7 @@
       <c r="A223" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C223" s="8" t="s">
@@ -10752,7 +10748,7 @@
       <c r="A224" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C224" s="8" t="s">
@@ -10772,7 +10768,7 @@
       <c r="A225" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C225" s="8" t="s">
@@ -10792,7 +10788,7 @@
       <c r="A226" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C226" s="8" t="s">
@@ -10812,7 +10808,7 @@
       <c r="A227" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C227" s="8" t="s">
@@ -10832,7 +10828,7 @@
       <c r="A228" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C228" s="8" t="s">
@@ -10852,7 +10848,7 @@
       <c r="A229" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C229" s="8" t="s">
